--- a/面试题目.xlsx
+++ b/面试题目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>category</t>
   </si>
   <si>
-    <t>difficuty</t>
+    <t>difficulty</t>
   </si>
   <si>
     <t>answer</t>
@@ -1788,14 +1788,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2114,21 +2111,21 @@
   <sheetPr/>
   <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="115.2" spans="1:5">
+    <row r="2" ht="126" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="96" spans="1:5">
+    <row r="3" ht="105" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="96" spans="1:5">
+    <row r="4" ht="105" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2183,11 +2180,11 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="96" spans="1:5">
+    <row r="5" ht="105" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2197,14 +2194,14 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:5">
+    <row r="6" ht="27" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2214,11 +2211,11 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:5">
+    <row r="7" ht="52.5" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2228,14 +2225,14 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:5">
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2245,14 +2242,14 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:5">
+    <row r="9" ht="63" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,11 +2259,11 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:5">
+    <row r="10" ht="42" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,14 +2273,14 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="48" spans="1:5">
+    <row r="11" ht="42" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2293,11 +2290,11 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="57.6" spans="1:5">
+    <row r="12" ht="63" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2307,11 +2304,11 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="48" spans="1:5">
+    <row r="13" ht="52.5" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2321,11 +2318,11 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="105.6" spans="1:5">
+    <row r="14" ht="105" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2335,14 +2332,14 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="67.2" spans="1:5">
+    <row r="15" ht="73.5" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2352,11 +2349,11 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="57.6" spans="1:5">
+    <row r="16" ht="54" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2366,11 +2363,11 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="67.2" spans="1:5">
+    <row r="17" ht="73.5" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2380,11 +2377,11 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="57.6" spans="1:5">
+    <row r="18" ht="63" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -2394,11 +2391,11 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="96" spans="1:5">
+    <row r="19" ht="105" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -2408,14 +2405,14 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="220.8" spans="1:5">
+    <row r="20" ht="241.5" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2425,11 +2422,11 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:5">
+    <row r="21" ht="31.5" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2439,11 +2436,11 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="38.4" spans="1:5">
+    <row r="22" ht="42" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2453,11 +2450,11 @@
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="43.2" spans="1:5">
+    <row r="23" ht="40.5" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,14 +2464,14 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="1:5">
+    <row r="24" ht="40.5" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,14 +2481,14 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:5">
+    <row r="25" ht="40.5" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,11 +2498,11 @@
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" ht="76.8" spans="1:5">
+    <row r="26" ht="73.5" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2515,11 +2512,11 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" ht="67.2" spans="1:5">
+    <row r="27" ht="73.5" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -2529,11 +2526,11 @@
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="76.8" spans="1:5">
+    <row r="28" ht="84" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2543,11 +2540,11 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" ht="86.4" spans="1:5">
+    <row r="29" ht="81" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2557,11 +2554,11 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" ht="43.2" spans="1:5">
+    <row r="30" ht="42" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2571,11 +2568,11 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="48" spans="1:5">
+    <row r="31" ht="52.5" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,14 +2582,14 @@
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="57.6" spans="1:5">
+    <row r="32" ht="63" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2602,11 +2599,11 @@
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="57.6" spans="1:5">
+    <row r="33" ht="54" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -2616,11 +2613,11 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="43.2" spans="1:5">
+    <row r="34" ht="40.5" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -2630,11 +2627,11 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="28.8" spans="1:5">
+    <row r="35" ht="31.5" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -2644,11 +2641,11 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="48" spans="1:5">
+    <row r="36" ht="52.5" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2658,11 +2655,11 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" ht="38.4" spans="1:5">
+    <row r="37" ht="31.5" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -2672,11 +2669,11 @@
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" ht="28.8" spans="1:5">
+    <row r="38" ht="27" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2686,14 +2683,14 @@
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" ht="57.6" spans="1:5">
+    <row r="39" ht="63" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -2703,11 +2700,11 @@
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" ht="76.8" spans="1:5">
+    <row r="40" ht="84" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -2717,11 +2714,11 @@
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" ht="345.6" spans="1:5">
+    <row r="41" ht="378" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
@@ -2731,14 +2728,14 @@
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" ht="153.6" spans="1:5">
+    <row r="42" ht="157.5" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
@@ -2748,11 +2745,11 @@
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="105.6" spans="1:5">
+    <row r="43" ht="105" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2762,11 +2759,11 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:5">
+    <row r="44" ht="31.5" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2776,14 +2773,14 @@
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:5">
+    <row r="45" ht="40.5" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2793,11 +2790,11 @@
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:5">
+    <row r="46" ht="40.5" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
@@ -2807,11 +2804,11 @@
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" ht="48" spans="1:5">
+    <row r="47" ht="52.5" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>111</v>
       </c>
@@ -2821,11 +2818,11 @@
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" ht="57.6" spans="1:5">
+    <row r="48" ht="54" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -2835,11 +2832,11 @@
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:5">
+    <row r="49" ht="31.5" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -2849,11 +2846,11 @@
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" ht="57.6" spans="1:5">
+    <row r="50" ht="54" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -2863,11 +2860,11 @@
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" ht="105.6" spans="1:5">
+    <row r="51" ht="115.5" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -2877,11 +2874,11 @@
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" ht="96" spans="1:5">
+    <row r="52" ht="105" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>121</v>
       </c>
@@ -2891,11 +2888,11 @@
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" ht="67.2" spans="1:5">
+    <row r="53" ht="73.5" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>123</v>
       </c>
@@ -2905,11 +2902,11 @@
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:5">
+    <row r="54" ht="27" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>125</v>
       </c>
@@ -2919,11 +2916,11 @@
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" ht="57.6" spans="1:5">
+    <row r="55" ht="63" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
@@ -2933,11 +2930,11 @@
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" ht="124.8" spans="1:5">
+    <row r="56" ht="136.5" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
@@ -2947,14 +2944,14 @@
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" ht="86.4" spans="1:5">
+    <row r="57" ht="94.5" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -2964,11 +2961,11 @@
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" ht="48" spans="1:5">
+    <row r="58" ht="52.5" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>134</v>
       </c>
@@ -2978,11 +2975,11 @@
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" ht="19.2" spans="1:5">
+    <row r="59" ht="21" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
@@ -2992,11 +2989,11 @@
       <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" ht="48" spans="1:5">
+    <row r="60" ht="52.5" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
@@ -3006,11 +3003,11 @@
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" ht="67.2" spans="1:5">
+    <row r="61" ht="73.5" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>140</v>
       </c>
@@ -3020,11 +3017,11 @@
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" ht="57.6" spans="1:5">
+    <row r="62" ht="52.5" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -3034,11 +3031,11 @@
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" ht="72" spans="1:5">
+    <row r="63" ht="67.5" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -3048,11 +3045,11 @@
       <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" ht="67.2" spans="1:5">
+    <row r="64" ht="73.5" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>146</v>
       </c>
@@ -3062,11 +3059,11 @@
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" ht="67.2" spans="1:5">
+    <row r="65" ht="73.5" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -3076,11 +3073,11 @@
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" ht="43.2" spans="1:5">
+    <row r="66" ht="40.5" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>150</v>
       </c>
@@ -3090,11 +3087,11 @@
       <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" ht="38.4" spans="1:5">
+    <row r="67" ht="42" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
@@ -3104,11 +3101,11 @@
       <c r="C67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" ht="67.2" spans="1:5">
+    <row r="68" ht="63" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -3118,11 +3115,11 @@
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="69" ht="67.2" spans="1:5">
+    <row r="69" ht="73.5" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -3132,11 +3129,11 @@
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" ht="43.2" spans="1:5">
+    <row r="70" ht="42" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>158</v>
       </c>
@@ -3146,11 +3143,11 @@
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" ht="72" spans="1:5">
+    <row r="71" ht="67.5" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -3160,11 +3157,11 @@
       <c r="C71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" ht="72" spans="1:5">
+    <row r="72" ht="67.5" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>162</v>
       </c>
@@ -3174,11 +3171,11 @@
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" ht="72" spans="1:5">
+    <row r="73" ht="67.5" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -3188,11 +3185,11 @@
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" ht="43.2" spans="1:5">
+    <row r="74" ht="40.5" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>166</v>
       </c>
@@ -3202,11 +3199,11 @@
       <c r="C74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" ht="28.8" spans="1:5">
+    <row r="75" ht="27" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>168</v>
       </c>
@@ -3216,11 +3213,11 @@
       <c r="C75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" ht="67.2" spans="1:5">
+    <row r="76" ht="73.5" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
@@ -3230,11 +3227,11 @@
       <c r="C76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" ht="43.2" spans="1:5">
+    <row r="77" ht="40.5" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>172</v>
       </c>
@@ -3244,11 +3241,11 @@
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:5">
+    <row r="78" ht="27" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -3258,11 +3255,11 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="79" ht="28.8" spans="1:5">
+    <row r="79" ht="31.5" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>176</v>
       </c>
@@ -3272,11 +3269,11 @@
       <c r="C79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" ht="43.2" spans="1:5">
+    <row r="80" ht="40.5" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>178</v>
       </c>
@@ -3286,14 +3283,14 @@
       <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" ht="57.6" spans="1:5">
+    <row r="81" ht="54" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>181</v>
       </c>
@@ -3303,11 +3300,11 @@
       <c r="C81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" ht="86.4" spans="1:5">
+    <row r="82" ht="94.5" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>184</v>
       </c>
@@ -3317,14 +3314,14 @@
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" ht="96" spans="1:5">
+    <row r="83" ht="94.5" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>187</v>
       </c>
@@ -3334,11 +3331,11 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" ht="43.2" spans="1:5">
+    <row r="84" ht="40.5" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>189</v>
       </c>
@@ -3348,11 +3345,11 @@
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="85" ht="57.6" spans="1:5">
+    <row r="85" ht="63" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>191</v>
       </c>
@@ -3362,14 +3359,14 @@
       <c r="C85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="86" ht="57.6" spans="1:5">
+    <row r="86" ht="54" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>194</v>
       </c>
@@ -3379,14 +3376,14 @@
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" ht="43.2" spans="1:5">
+    <row r="87" ht="40.5" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>197</v>
       </c>
@@ -3396,11 +3393,11 @@
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="88" ht="57.6" spans="1:5">
+    <row r="88" ht="63" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>199</v>
       </c>
@@ -3410,11 +3407,11 @@
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="89" ht="57.6" spans="1:5">
+    <row r="89" ht="63" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>201</v>
       </c>
@@ -3424,11 +3421,11 @@
       <c r="C89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" ht="43.2" spans="1:5">
+    <row r="90" ht="40.5" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>203</v>
       </c>
@@ -3438,11 +3435,11 @@
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" ht="57.6" spans="1:5">
+    <row r="91" ht="63" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>205</v>
       </c>
@@ -3452,11 +3449,11 @@
       <c r="C91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" ht="28.8" spans="1:5">
+    <row r="92" ht="27" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>207</v>
       </c>
@@ -3466,11 +3463,11 @@
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" ht="76.8" spans="1:5">
+    <row r="93" ht="84" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>210</v>
       </c>
@@ -3480,11 +3477,11 @@
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="94" ht="38.4" spans="1:5">
+    <row r="94" ht="42" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>212</v>
       </c>
@@ -3494,11 +3491,11 @@
       <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="95" ht="76.8" spans="1:5">
+    <row r="95" ht="84" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>214</v>
       </c>
@@ -3508,11 +3505,11 @@
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" ht="144" spans="1:5">
+    <row r="96" ht="157.5" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>216</v>
       </c>
@@ -3522,11 +3519,11 @@
       <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" ht="67.2" spans="1:5">
+    <row r="97" ht="73.5" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>218</v>
       </c>
@@ -3536,11 +3533,11 @@
       <c r="C97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" ht="115.2" spans="1:5">
+    <row r="98" ht="126" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>220</v>
       </c>
@@ -3550,11 +3547,11 @@
       <c r="C98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" ht="96" spans="1:5">
+    <row r="99" ht="105" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>222</v>
       </c>
@@ -3564,11 +3561,11 @@
       <c r="C99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" ht="144" spans="1:5">
+    <row r="100" ht="147" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
@@ -3578,11 +3575,11 @@
       <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" ht="38.4" spans="1:5">
+    <row r="101" ht="31.5" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>226</v>
       </c>
@@ -3592,11 +3589,11 @@
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" ht="76.8" spans="1:5">
+    <row r="102" ht="73.5" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>228</v>
       </c>
@@ -3606,11 +3603,11 @@
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="103" ht="76.8" spans="1:5">
+    <row r="103" ht="84" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>230</v>
       </c>
@@ -3620,11 +3617,11 @@
       <c r="C103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="104" ht="48" spans="1:5">
+    <row r="104" ht="42" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>232</v>
       </c>
@@ -3634,11 +3631,11 @@
       <c r="C104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="105" ht="105.6" spans="1:5">
+    <row r="105" ht="115.5" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>234</v>
       </c>
@@ -3648,14 +3645,14 @@
       <c r="C105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="106" ht="38.4" spans="1:5">
+    <row r="106" ht="42" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>237</v>
       </c>
@@ -3665,11 +3662,11 @@
       <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" ht="28.8" spans="1:5">
+    <row r="107" ht="31.5" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>239</v>
       </c>
@@ -3679,11 +3676,11 @@
       <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="108" ht="86.4" spans="1:5">
+    <row r="108" ht="94.5" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>241</v>
       </c>
@@ -3693,11 +3690,11 @@
       <c r="C108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="109" ht="48" spans="1:5">
+    <row r="109" ht="52.5" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>243</v>
       </c>
@@ -3707,11 +3704,11 @@
       <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="110" ht="115.2" spans="1:5">
+    <row r="110" ht="126" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -3721,11 +3718,11 @@
       <c r="C110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="111" ht="48" spans="1:5">
+    <row r="111" ht="52.5" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>247</v>
       </c>
@@ -3735,11 +3732,11 @@
       <c r="C111" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="112" ht="28.8" spans="1:5">
+    <row r="112" ht="27" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>250</v>
       </c>
@@ -3749,11 +3746,11 @@
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" ht="43.2" spans="1:4">
+    <row r="113" ht="42" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>252</v>
       </c>
@@ -3763,11 +3760,11 @@
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" ht="57.6" spans="1:4">
+    <row r="114" ht="54" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>254</v>
       </c>
@@ -3777,11 +3774,11 @@
       <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="115" ht="72" spans="1:4">
+    <row r="115" ht="67.5" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>256</v>
       </c>
@@ -3791,11 +3788,11 @@
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="116" ht="43.2" spans="1:4">
+    <row r="116" ht="40.5" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>258</v>
       </c>
@@ -3805,11 +3802,11 @@
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" ht="96" spans="1:4">
+    <row r="117" ht="94.5" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>260</v>
       </c>
@@ -3819,11 +3816,11 @@
       <c r="C117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" ht="43.2" spans="1:4">
+    <row r="118" ht="40.5" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>262</v>
       </c>
@@ -3833,11 +3830,11 @@
       <c r="C118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="119" ht="28.8" spans="1:4">
+    <row r="119" ht="31.5" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>264</v>
       </c>
@@ -3847,11 +3844,11 @@
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="120" ht="72" spans="1:4">
+    <row r="120" ht="67.5" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>266</v>
       </c>
@@ -3861,11 +3858,11 @@
       <c r="C120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="121" ht="67.2" spans="1:4">
+    <row r="121" ht="73.5" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
@@ -3875,11 +3872,11 @@
       <c r="C121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="122" ht="72" spans="1:4">
+    <row r="122" ht="67.5" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>270</v>
       </c>
@@ -3889,11 +3886,11 @@
       <c r="C122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="123" ht="28.8" spans="1:4">
+    <row r="123" ht="27" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>272</v>
       </c>
@@ -3903,11 +3900,11 @@
       <c r="C123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="124" ht="43.2" spans="1:4">
+    <row r="124" ht="42" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>274</v>
       </c>
@@ -3917,11 +3914,11 @@
       <c r="C124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="125" ht="48" spans="1:4">
+    <row r="125" ht="52.5" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>276</v>
       </c>
@@ -3931,11 +3928,11 @@
       <c r="C125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="126" ht="28.8" spans="1:4">
+    <row r="126" ht="27" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>278</v>
       </c>
@@ -3945,11 +3942,11 @@
       <c r="C126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" ht="28.8" spans="1:4">
+    <row r="127" ht="27" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>280</v>
       </c>
@@ -3959,11 +3956,11 @@
       <c r="C127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="128" ht="48" spans="1:4">
+    <row r="128" ht="52.5" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>282</v>
       </c>
@@ -3973,11 +3970,11 @@
       <c r="C128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="129" ht="67.2" spans="1:4">
+    <row r="129" ht="63" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>284</v>
       </c>
@@ -3987,7 +3984,7 @@
       <c r="C129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3995,1747 +3992,1747 @@
       <c r="C130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4">
       <c r="C131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4">
       <c r="C132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
       <c r="C133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4">
       <c r="C134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4">
       <c r="C136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4">
       <c r="C137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4">
       <c r="C138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4">
       <c r="C139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4">
       <c r="C140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4">
       <c r="C141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4">
       <c r="C144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="3"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="3:4">
       <c r="C145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="3:4">
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="3:4">
       <c r="C147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="3:4">
       <c r="C148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="3:4">
       <c r="C149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="3:4">
       <c r="C150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="3:4">
       <c r="C151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="3:4">
       <c r="C152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="3:4">
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D153" s="3"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="3:4">
       <c r="C154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="3"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" spans="3:4">
       <c r="C155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="3"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="3:4">
       <c r="C156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="2"/>
     </row>
     <row r="157" spans="3:4">
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="3"/>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="3:4">
       <c r="C158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="3"/>
+      <c r="D158" s="2"/>
     </row>
     <row r="159" spans="3:4">
       <c r="C159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="3"/>
+      <c r="D159" s="2"/>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="3"/>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="3:4">
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D161" s="3"/>
+      <c r="D161" s="2"/>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="3"/>
+      <c r="D162" s="2"/>
     </row>
     <row r="163" spans="3:4">
       <c r="C163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D163" s="3"/>
+      <c r="D163" s="2"/>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="3"/>
+      <c r="D164" s="2"/>
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="3"/>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="3:4">
       <c r="C166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="3"/>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D167" s="3"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="3:4">
       <c r="C168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="3"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="3:4">
       <c r="C169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="3"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="3:4">
       <c r="C170" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="3"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="3:4">
       <c r="C171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="3"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="3:4">
       <c r="C172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="3"/>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="3:4">
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="3"/>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="3:4">
       <c r="C174" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="3"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="3:4">
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="3"/>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="3"/>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="3:4">
       <c r="C177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="3"/>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="3:4">
       <c r="C178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="3"/>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="3:4">
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="3"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="3:4">
       <c r="C180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="3"/>
+      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="3:4">
       <c r="C181" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="3"/>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="3:4">
       <c r="C182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="3"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="3:4">
       <c r="C183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="3"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="3:4">
       <c r="C184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="3"/>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="3:4">
       <c r="C185" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="3"/>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="3:4">
       <c r="C186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="3"/>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="3:4">
       <c r="C187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D187" s="3"/>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="3:4">
       <c r="C188" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D188" s="3"/>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="3:4">
       <c r="C189" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="3:4">
       <c r="C190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="3"/>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="3:4">
       <c r="C191" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191" s="2"/>
     </row>
     <row r="192" spans="3:4">
       <c r="C192" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="2"/>
     </row>
     <row r="193" spans="3:4">
       <c r="C193" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="3"/>
+      <c r="D193" s="2"/>
     </row>
     <row r="194" spans="3:4">
       <c r="C194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D195" s="3"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="3:4">
       <c r="C196" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D196" s="3"/>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="3"/>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="3:4">
       <c r="C198" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D198" s="3"/>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="3:4">
       <c r="C199" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="3:4">
       <c r="C200" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="3:4">
       <c r="C201" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="3"/>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="3:4">
       <c r="C202" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D202" s="3"/>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="3:4">
       <c r="C203" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="3:4">
       <c r="C204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="3"/>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="3:4">
       <c r="C205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="3"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="3:4">
       <c r="C206" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="3:4">
       <c r="C207" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="3"/>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="3:4">
       <c r="C208" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="3"/>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="3:4">
       <c r="C209" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D209" s="3"/>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="3:4">
       <c r="C210" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="3"/>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="3:4">
       <c r="C211" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="3"/>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="3:4">
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="3"/>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="3:4">
       <c r="C213" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="3"/>
+      <c r="D213" s="2"/>
     </row>
     <row r="214" spans="3:4">
       <c r="C214" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="2"/>
     </row>
     <row r="215" spans="3:4">
       <c r="C215" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="3"/>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="3:4">
       <c r="C216" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="3"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="3:4">
       <c r="C217" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="3:4">
       <c r="C218" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D218" s="3"/>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="3:4">
       <c r="C219" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="3:4">
       <c r="C220" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="3:4">
       <c r="C221" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="3"/>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="3:4">
       <c r="C222" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="3"/>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="3:4">
       <c r="C223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="3"/>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="3:4">
       <c r="C224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="3"/>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="3:4">
       <c r="C225" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="3"/>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="3:4">
       <c r="C226" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="3"/>
+      <c r="D226" s="2"/>
     </row>
     <row r="227" spans="3:4">
       <c r="C227" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="3"/>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="3:4">
       <c r="C228" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="3"/>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="3:4">
       <c r="C229" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="3"/>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="3:4">
       <c r="C230" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="3"/>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="3:4">
       <c r="C231" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="3"/>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="3:4">
       <c r="C232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="3"/>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="3:4">
       <c r="C233" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="3"/>
+      <c r="D233" s="2"/>
     </row>
     <row r="234" spans="3:4">
       <c r="C234" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="3"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="3:4">
       <c r="C235" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="3"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="3:4">
       <c r="C236" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="3"/>
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="3:4">
       <c r="C237" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="3"/>
+      <c r="D237" s="2"/>
     </row>
     <row r="238" spans="3:4">
       <c r="C238" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="3"/>
+      <c r="D238" s="2"/>
     </row>
     <row r="239" spans="3:4">
       <c r="C239" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="3"/>
+      <c r="D239" s="2"/>
     </row>
     <row r="240" spans="3:4">
       <c r="C240" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="3"/>
+      <c r="D240" s="2"/>
     </row>
     <row r="241" spans="3:4">
       <c r="C241" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="3"/>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="3:4">
       <c r="C242" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="3"/>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="3:4">
       <c r="C243" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="3"/>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="3:4">
       <c r="C244" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="3"/>
+      <c r="D244" s="2"/>
     </row>
     <row r="245" spans="3:4">
       <c r="C245" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="3"/>
+      <c r="D245" s="2"/>
     </row>
     <row r="246" spans="3:4">
       <c r="C246" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="3"/>
+      <c r="D246" s="2"/>
     </row>
     <row r="247" spans="3:4">
       <c r="C247" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D247" s="3"/>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="3:4">
       <c r="C248" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="3"/>
+      <c r="D248" s="2"/>
     </row>
     <row r="249" spans="3:4">
       <c r="C249" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="3"/>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="3:4">
       <c r="C250" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="3"/>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="3:4">
       <c r="C251" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D251" s="3"/>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="3:4">
       <c r="C252" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D252" s="3"/>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="3:4">
       <c r="C253" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="3"/>
+      <c r="D253" s="2"/>
     </row>
     <row r="254" spans="3:4">
       <c r="C254" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="3"/>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="3:4">
       <c r="C255" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="3"/>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="3:4">
       <c r="C256" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D256" s="3"/>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" spans="3:4">
       <c r="C257" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="3"/>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="3:4">
       <c r="C258" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D258" s="3"/>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="3:4">
       <c r="C259" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D259" s="3"/>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="3:4">
       <c r="C260" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D260" s="3"/>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="3:4">
       <c r="C261" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D261" s="3"/>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="3:4">
       <c r="C262" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D262" s="3"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="3:4">
       <c r="C263" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="3"/>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="3:4">
       <c r="C264" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D264" s="3"/>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="3:4">
       <c r="C265" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D265" s="3"/>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="3:4">
       <c r="C266" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D266" s="3"/>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="3:4">
       <c r="C267" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="3:4">
       <c r="C268" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="3"/>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="3:4">
       <c r="C269" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D269" s="3"/>
+      <c r="D269" s="2"/>
     </row>
     <row r="270" spans="3:4">
       <c r="C270" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="3"/>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="3:4">
       <c r="C271" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D271" s="3"/>
+      <c r="D271" s="2"/>
     </row>
     <row r="272" spans="3:4">
       <c r="C272" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D272" s="3"/>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="3:4">
       <c r="C273" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="3"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="3:4">
       <c r="C274" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D274" s="3"/>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="3:4">
       <c r="C275" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D275" s="3"/>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="3:4">
       <c r="C276" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D276" s="3"/>
+      <c r="D276" s="2"/>
     </row>
     <row r="277" spans="3:4">
       <c r="C277" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="3"/>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="3:4">
       <c r="C278" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D278" s="3"/>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="3:4">
       <c r="C279" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D279" s="3"/>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="3:4">
       <c r="C280" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D280" s="3"/>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="3:4">
       <c r="C281" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="3"/>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="3:4">
       <c r="C282" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D282" s="3"/>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="3:4">
       <c r="C283" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="3"/>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="3:4">
       <c r="C284" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D284" s="3"/>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="3:4">
       <c r="C285" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D285" s="3"/>
+      <c r="D285" s="2"/>
     </row>
     <row r="286" spans="3:4">
       <c r="C286" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D286" s="3"/>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="3:4">
       <c r="C287" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D287" s="3"/>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="3:4">
       <c r="C288" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D288" s="3"/>
+      <c r="D288" s="2"/>
     </row>
     <row r="289" spans="3:4">
       <c r="C289" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="3"/>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="3:4">
       <c r="C290" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="3"/>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="3:4">
       <c r="C291" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D291" s="3"/>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="3:4">
       <c r="C292" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D292" s="3"/>
+      <c r="D292" s="2"/>
     </row>
     <row r="293" spans="3:4">
       <c r="C293" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="3"/>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="3:4">
       <c r="C294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="3"/>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="3:4">
       <c r="C295" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="3"/>
+      <c r="D295" s="2"/>
     </row>
     <row r="296" spans="3:4">
       <c r="C296" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D296" s="3"/>
+      <c r="D296" s="2"/>
     </row>
     <row r="297" spans="3:4">
       <c r="C297" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D297" s="3"/>
+      <c r="D297" s="2"/>
     </row>
     <row r="298" spans="3:4">
       <c r="C298" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D298" s="3"/>
+      <c r="D298" s="2"/>
     </row>
     <row r="299" spans="3:4">
       <c r="C299" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D299" s="3"/>
+      <c r="D299" s="2"/>
     </row>
     <row r="300" spans="3:4">
       <c r="C300" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D300" s="3"/>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="3:4">
       <c r="C301" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D301" s="3"/>
+      <c r="D301" s="2"/>
     </row>
     <row r="302" spans="3:4">
       <c r="C302" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D302" s="3"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="3:4">
       <c r="C303" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="3"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="3:4">
       <c r="C304" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="3"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="3:4">
       <c r="C305" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="3"/>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="3:4">
       <c r="C306" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D306" s="3"/>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="3:4">
       <c r="C307" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D307" s="3"/>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="3:4">
       <c r="C308" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D308" s="3"/>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="3:4">
       <c r="C309" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D309" s="3"/>
+      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="3:4">
       <c r="C310" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D310" s="3"/>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="3:4">
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="3"/>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="3:4">
       <c r="C312" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D312" s="3"/>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="3:4">
       <c r="C313" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D313" s="3"/>
+      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="3:4">
       <c r="C314" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D314" s="3"/>
+      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="3:4">
       <c r="C315" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D315" s="3"/>
+      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="3:4">
       <c r="C316" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D316" s="3"/>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="3:4">
       <c r="C317" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D317" s="3"/>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="3:4">
       <c r="C318" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D318" s="3"/>
+      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="3:4">
       <c r="C319" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D319" s="3"/>
+      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="3:4">
       <c r="C320" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D320" s="3"/>
+      <c r="D320" s="2"/>
     </row>
     <row r="321" spans="3:4">
       <c r="C321" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D321" s="3"/>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="3:4">
       <c r="C322" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D322" s="3"/>
+      <c r="D322" s="2"/>
     </row>
     <row r="323" spans="3:4">
       <c r="C323" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D323" s="3"/>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="3:4">
       <c r="C324" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D324" s="3"/>
+      <c r="D324" s="2"/>
     </row>
     <row r="325" spans="3:4">
       <c r="C325" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="3"/>
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="3:4">
       <c r="C326" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D326" s="3"/>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="3:4">
       <c r="C327" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D327" s="3"/>
+      <c r="D327" s="2"/>
     </row>
     <row r="328" spans="3:4">
       <c r="C328" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D328" s="3"/>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="3:4">
       <c r="C329" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D329" s="3"/>
+      <c r="D329" s="2"/>
     </row>
     <row r="330" spans="3:4">
       <c r="C330" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D330" s="3"/>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="3:4">
       <c r="C331" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D331" s="3"/>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="3:4">
       <c r="C332" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D332" s="3"/>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="3:4">
       <c r="C333" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D333" s="3"/>
+      <c r="D333" s="2"/>
     </row>
     <row r="334" spans="3:4">
       <c r="C334" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D334" s="3"/>
+      <c r="D334" s="2"/>
     </row>
     <row r="335" spans="3:4">
       <c r="C335" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D335" s="3"/>
+      <c r="D335" s="2"/>
     </row>
     <row r="336" spans="3:4">
       <c r="C336" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D336" s="3"/>
+      <c r="D336" s="2"/>
     </row>
     <row r="337" spans="3:4">
       <c r="C337" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D337" s="3"/>
+      <c r="D337" s="2"/>
     </row>
     <row r="338" spans="3:4">
       <c r="C338" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D338" s="3"/>
+      <c r="D338" s="2"/>
     </row>
     <row r="339" spans="3:4">
       <c r="C339" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="3"/>
+      <c r="D339" s="2"/>
     </row>
     <row r="340" spans="3:4">
       <c r="C340" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D340" s="3"/>
+      <c r="D340" s="2"/>
     </row>
     <row r="341" spans="3:4">
       <c r="C341" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D341" s="3"/>
+      <c r="D341" s="2"/>
     </row>
     <row r="342" spans="3:4">
       <c r="C342" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D342" s="3"/>
+      <c r="D342" s="2"/>
     </row>
     <row r="343" spans="3:4">
       <c r="C343" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D343" s="3"/>
+      <c r="D343" s="2"/>
     </row>
     <row r="344" spans="3:4">
       <c r="C344" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="3"/>
+      <c r="D344" s="2"/>
     </row>
     <row r="345" spans="3:4">
       <c r="C345" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="3"/>
+      <c r="D345" s="2"/>
     </row>
     <row r="346" spans="3:4">
       <c r="C346" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D346" s="3"/>
+      <c r="D346" s="2"/>
     </row>
     <row r="347" spans="3:4">
       <c r="C347" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D347" s="3"/>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="3:4">
       <c r="C348" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D348" s="3"/>
+      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="3:4">
       <c r="C349" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="3"/>
+      <c r="D349" s="2"/>
     </row>
     <row r="350" spans="3:4">
       <c r="C350" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D350" s="3"/>
+      <c r="D350" s="2"/>
     </row>
     <row r="351" spans="3:4">
       <c r="C351" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D351" s="3"/>
+      <c r="D351" s="2"/>
     </row>
     <row r="352" spans="3:4">
       <c r="C352" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D352" s="3"/>
+      <c r="D352" s="2"/>
     </row>
     <row r="353" spans="3:4">
       <c r="C353" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="3"/>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="3:4">
       <c r="C354" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D354" s="3"/>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="3:4">
       <c r="C355" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D355" s="3"/>
+      <c r="D355" s="2"/>
     </row>
     <row r="356" spans="3:4">
       <c r="C356" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D356" s="3"/>
+      <c r="D356" s="2"/>
     </row>
     <row r="357" spans="3:4">
       <c r="C357" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D357" s="3"/>
+      <c r="D357" s="2"/>
     </row>
     <row r="358" spans="3:4">
       <c r="C358" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D358" s="3"/>
+      <c r="D358" s="2"/>
     </row>
     <row r="359" spans="3:4">
       <c r="C359" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D359" s="3"/>
+      <c r="D359" s="2"/>
     </row>
     <row r="360" spans="3:4">
       <c r="C360" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D360" s="3"/>
+      <c r="D360" s="2"/>
     </row>
     <row r="361" spans="3:4">
       <c r="C361" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D361" s="3"/>
+      <c r="D361" s="2"/>
     </row>
     <row r="362" spans="3:4">
       <c r="C362" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D362" s="3"/>
+      <c r="D362" s="2"/>
     </row>
     <row r="363" spans="3:4">
       <c r="C363" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D363" s="3"/>
+      <c r="D363" s="2"/>
     </row>
     <row r="364" spans="3:4">
       <c r="C364" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D364" s="3"/>
+      <c r="D364" s="2"/>
     </row>
     <row r="365" spans="3:4">
       <c r="C365" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D365" s="3"/>
+      <c r="D365" s="2"/>
     </row>
     <row r="366" spans="3:4">
       <c r="C366" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D366" s="3"/>
+      <c r="D366" s="2"/>
     </row>
     <row r="367" spans="3:4">
       <c r="C367" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D367" s="3"/>
+      <c r="D367" s="2"/>
     </row>
     <row r="368" spans="3:4">
       <c r="C368" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D368" s="3"/>
+      <c r="D368" s="2"/>
     </row>
     <row r="369" spans="3:4">
       <c r="C369" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D369" s="3"/>
+      <c r="D369" s="2"/>
     </row>
     <row r="370" spans="3:4">
       <c r="C370" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D370" s="3"/>
+      <c r="D370" s="2"/>
     </row>
     <row r="371" spans="3:4">
       <c r="C371" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D371" s="3"/>
+      <c r="D371" s="2"/>
     </row>
     <row r="372" spans="3:4">
       <c r="C372" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D372" s="3"/>
+      <c r="D372" s="2"/>
     </row>
     <row r="373" spans="3:4">
       <c r="C373" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D373" s="3"/>
+      <c r="D373" s="2"/>
     </row>
     <row r="374" spans="3:4">
       <c r="C374" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D374" s="3"/>
+      <c r="D374" s="2"/>
     </row>
     <row r="375" spans="3:4">
       <c r="C375" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D375" s="3"/>
+      <c r="D375" s="2"/>
     </row>
     <row r="376" spans="3:4">
       <c r="C376" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D376" s="3"/>
+      <c r="D376" s="2"/>
     </row>
     <row r="377" spans="3:4">
       <c r="C377" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="3"/>
+      <c r="D377" s="2"/>
     </row>
     <row r="378" spans="3:4">
       <c r="C378" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D378" s="3"/>
+      <c r="D378" s="2"/>
     </row>
     <row r="379" spans="3:4">
       <c r="C379" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D379" s="3"/>
+      <c r="D379" s="2"/>
     </row>
     <row r="380" spans="3:4">
       <c r="C380" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D380" s="3"/>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="3:4">
       <c r="C381" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D381" s="3"/>
+      <c r="D381" s="2"/>
     </row>
     <row r="382" spans="3:4">
       <c r="C382" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D382" s="3"/>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="3:4">
       <c r="C383" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D383" s="3"/>
+      <c r="D383" s="2"/>
     </row>
     <row r="384" spans="3:4">
       <c r="C384" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D384" s="3"/>
+      <c r="D384" s="2"/>
     </row>
     <row r="385" spans="3:4">
       <c r="C385" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D385" s="3"/>
+      <c r="D385" s="2"/>
     </row>
     <row r="386" spans="3:4">
       <c r="C386" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D386" s="3"/>
+      <c r="D386" s="2"/>
     </row>
     <row r="387" spans="3:4">
       <c r="C387" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D387" s="3"/>
+      <c r="D387" s="2"/>
     </row>
     <row r="388" spans="3:4">
       <c r="C388" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D388" s="3"/>
+      <c r="D388" s="2"/>
     </row>
     <row r="389" spans="3:4">
       <c r="C389" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D389" s="3"/>
+      <c r="D389" s="2"/>
     </row>
     <row r="390" spans="3:4">
       <c r="C390" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D390" s="3"/>
+      <c r="D390" s="2"/>
     </row>
     <row r="391" spans="3:4">
       <c r="C391" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D391" s="3"/>
+      <c r="D391" s="2"/>
     </row>
     <row r="392" spans="3:4">
       <c r="C392" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D392" s="3"/>
+      <c r="D392" s="2"/>
     </row>
     <row r="393" spans="3:4">
       <c r="C393" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D393" s="3"/>
+      <c r="D393" s="2"/>
     </row>
     <row r="394" spans="3:4">
       <c r="C394" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D394" s="3"/>
+      <c r="D394" s="2"/>
     </row>
     <row r="395" spans="3:4">
       <c r="C395" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D395" s="3"/>
+      <c r="D395" s="2"/>
     </row>
     <row r="396" spans="3:4">
       <c r="C396" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D396" s="3"/>
+      <c r="D396" s="2"/>
     </row>
     <row r="397" spans="3:4">
       <c r="C397" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D397" s="3"/>
+      <c r="D397" s="2"/>
     </row>
     <row r="398" spans="3:4">
       <c r="C398" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D398" s="3"/>
+      <c r="D398" s="2"/>
     </row>
     <row r="399" spans="3:4">
       <c r="C399" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D399" s="3"/>
+      <c r="D399" s="2"/>
     </row>
     <row r="400" spans="3:4">
       <c r="C400" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D400" s="3"/>
+      <c r="D400" s="2"/>
     </row>
     <row r="401" spans="3:4">
       <c r="C401" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D401" s="3"/>
+      <c r="D401" s="2"/>
     </row>
     <row r="402" spans="3:4">
       <c r="C402" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D402" s="3"/>
+      <c r="D402" s="2"/>
     </row>
     <row r="403" spans="3:4">
       <c r="C403" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D403" s="3"/>
+      <c r="D403" s="2"/>
     </row>
     <row r="404" spans="3:4">
       <c r="C404" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D404" s="3"/>
+      <c r="D404" s="2"/>
     </row>
     <row r="405" spans="3:4">
       <c r="C405" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D405" s="3"/>
+      <c r="D405" s="2"/>
     </row>
     <row r="406" spans="3:4">
       <c r="C406" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D406" s="3"/>
+      <c r="D406" s="2"/>
     </row>
     <row r="407" spans="3:4">
       <c r="C407" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D407" s="3"/>
+      <c r="D407" s="2"/>
     </row>
     <row r="408" spans="3:4">
       <c r="C408" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D408" s="3"/>
+      <c r="D408" s="2"/>
     </row>
     <row r="409" spans="3:4">
       <c r="C409" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D409" s="3"/>
+      <c r="D409" s="2"/>
     </row>
     <row r="410" spans="3:4">
       <c r="C410" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="2"/>
     </row>
     <row r="411" spans="3:4">
       <c r="C411" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D411" s="3"/>
+      <c r="D411" s="2"/>
     </row>
     <row r="412" spans="3:4">
       <c r="C412" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D412" s="3"/>
+      <c r="D412" s="2"/>
     </row>
     <row r="413" spans="3:4">
       <c r="C413" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D413" s="3"/>
+      <c r="D413" s="2"/>
     </row>
     <row r="414" spans="3:4">
       <c r="C414" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D414" s="3"/>
+      <c r="D414" s="2"/>
     </row>
     <row r="415" spans="3:4">
       <c r="C415" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D415" s="3"/>
+      <c r="D415" s="2"/>
     </row>
     <row r="416" spans="3:4">
       <c r="C416" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D416" s="3"/>
+      <c r="D416" s="2"/>
     </row>
     <row r="417" spans="3:4">
       <c r="C417" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D417" s="3"/>
+      <c r="D417" s="2"/>
     </row>
     <row r="418" spans="3:4">
       <c r="C418" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D418" s="3"/>
+      <c r="D418" s="2"/>
     </row>
     <row r="419" spans="3:4">
       <c r="C419" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="2"/>
     </row>
     <row r="420" spans="3:4">
       <c r="C420" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D420" s="3"/>
+      <c r="D420" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5758,7 +5755,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5775,7 +5772,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/面试题目.xlsx
+++ b/面试题目.xlsx
@@ -2112,7 +2112,7 @@
   <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2125,7 +2125,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/面试题目.xlsx
+++ b/面试题目.xlsx
@@ -2112,7 +2112,7 @@
   <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
